--- a/Data/IllinoisBirthWeights.xlsx
+++ b/Data/IllinoisBirthWeights.xlsx
@@ -1,26 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEA4982-B87C-46B9-AA2D-F605B60BD404}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="8400" windowHeight="2400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+  <si>
+    <t>Black_US</t>
+  </si>
+  <si>
+    <t>Black_Africa</t>
+  </si>
+  <si>
+    <t>White_US</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Data representative of results published in:</t>
+  </si>
+  <si>
+    <t>David, Richard J., &amp; Collins, James W.</t>
+  </si>
+  <si>
+    <t>Differing birth weight among infants of U.S.-born</t>
+  </si>
+  <si>
+    <t>blacks, African-born blacks, and U.S.-born whites.</t>
+  </si>
+  <si>
+    <t>New England Journal of Medicine.</t>
+  </si>
+  <si>
+    <t>337(17):1209-1214.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>The data are representive of birthweights (in grams)</t>
+  </si>
+  <si>
+    <t>of children born in Illinois to mothers who fall into</t>
+  </si>
+  <si>
+    <t>one of the following categories:</t>
+  </si>
+  <si>
+    <t>(1) Black, born in the United States (Black_US)</t>
+  </si>
+  <si>
+    <t>(2) Black, born in Africa (Black_Africa), or</t>
+  </si>
+  <si>
+    <t>(3) White, born in the United States (White_US).</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,19 +116,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -108,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -140,9 +210,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,6 +262,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -349,737 +455,599 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" s="0" outlineLevel="0">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Black_US</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Black_Africa</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>White_US</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="0" outlineLevel="0">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2566</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2790</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4429</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Data representative of results published in:</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="0" outlineLevel="0">
-      <c r="A3" t="n">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>3068</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3283</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3191</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>David, Richard J., &amp; Collins, James W.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="0" outlineLevel="0">
-      <c r="A4" t="n">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2931</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3148</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3712</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Differing birth weight among infants of U.S.-born</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="0" outlineLevel="0">
-      <c r="A5" t="n">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2882</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>3101</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3399</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>blacks, African-born blacks, and U.S.-born whites.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="0" outlineLevel="0">
-      <c r="A6" t="n">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2022</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2257</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2638</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>New England Journal of Medicine.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="0" outlineLevel="0">
-      <c r="A7" t="n">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2073</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2307</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3946</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>337(17):1209-1214.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="0" outlineLevel="0">
-      <c r="A8" t="n">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2907</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3125</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>3173</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="0" outlineLevel="0">
-      <c r="A9" t="n">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>4028</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>4225</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2926</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>The data are representive of birthweights (in grams)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="0" outlineLevel="0">
-      <c r="A10" t="n">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2982</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>3199</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2303</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>of children born in Illinois to mothers who fall into</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="0" outlineLevel="0">
-      <c r="A11" t="n">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2907</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>3125</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3885</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>one of the following categories:</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="0" outlineLevel="0">
-      <c r="A12" t="n">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2893</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>3112</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3208</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>(1) Black, born in the United States (Black_US)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="0" outlineLevel="0">
-      <c r="A13" t="n">
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2422</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2649</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2969</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>(2) Black, born in Africa (Black_Africa), or</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="0" outlineLevel="0">
-      <c r="A14" t="n">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>3910</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>4109</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2948</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>(3) White, born in the United States (White_US).</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="0" outlineLevel="0">
-      <c r="A15" t="n">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2588</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2812</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2270</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="0" outlineLevel="0">
-      <c r="A16" t="n">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2832</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>3051</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3172</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="0" outlineLevel="0">
-      <c r="A17" t="n">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2063</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2297</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2318</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="0" outlineLevel="0">
-      <c r="A18" t="n">
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2213</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2444</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2456</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="0" outlineLevel="0">
-      <c r="A19" t="n">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>3672</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>3875</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3661</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="0" outlineLevel="0">
-      <c r="A20" t="n">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>3512</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>3718</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3854</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="0" outlineLevel="0">
-      <c r="A21" t="n">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>3425</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>3633</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>3122</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="0" outlineLevel="0">
-      <c r="A22" t="n">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>3097</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>3312</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3666</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="0" outlineLevel="0">
-      <c r="A23" t="n">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2583</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2807</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4414</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="0" outlineLevel="0">
-      <c r="A24" t="n">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>3961</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>4159</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3490</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="0" outlineLevel="0">
-      <c r="A25" t="n">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2936</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>3154</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3871</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="0" outlineLevel="0">
-      <c r="A26" t="n">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>3081</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>3296</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>2679</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="0" outlineLevel="0">
-      <c r="A27" t="n">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>3873</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>4073</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>2850</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="0" outlineLevel="0">
-      <c r="A28" t="n">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>2966</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>3183</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2852</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="0" outlineLevel="0">
-      <c r="A29" t="n">
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>2906</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>3124</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3316</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="0" outlineLevel="0">
-      <c r="A30" t="n">
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>3489</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>3696</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>3596</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="0" outlineLevel="0">
-      <c r="A31" t="n">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>2525</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2751</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2719</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="0" outlineLevel="0">
-      <c r="A32" t="n">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>3087</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>3302</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>4448</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="0" outlineLevel="0">
-      <c r="A33" t="n">
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>3697</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>3900</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3043</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="0" outlineLevel="0">
-      <c r="A34" t="n">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>2293</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2523</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>2709</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="0" outlineLevel="0">
-      <c r="A35" t="n">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>2928</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>3146</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3695</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="0" outlineLevel="0">
-      <c r="A36" t="n">
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>2641</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2864</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3583</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="0" outlineLevel="0">
-      <c r="A37" t="n">
-        <v/>
-      </c>
-      <c r="B37" t="n">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B37">
         <v>3126</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2867</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="0" outlineLevel="0">
-      <c r="A38" t="n">
-        <v/>
-      </c>
-      <c r="B38" t="n">
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B38">
         <v>2661</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>4056</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="0" outlineLevel="0">
-      <c r="A39" t="n">
-        <v/>
-      </c>
-      <c r="B39" t="n">
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B39">
         <v>3951</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3342</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="0" outlineLevel="0">
-      <c r="A40" t="n">
-        <v/>
-      </c>
-      <c r="B40" t="n">
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B40">
         <v>4068</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>3124</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="0" outlineLevel="0">
-      <c r="A41" t="n">
-        <v/>
-      </c>
-      <c r="B41" t="n">
-        <v/>
-      </c>
-      <c r="C41" t="n">
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C41">
         <v>4281</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="0" outlineLevel="0">
-      <c r="A42" t="n">
-        <v/>
-      </c>
-      <c r="B42" t="n">
-        <v/>
-      </c>
-      <c r="C42" t="n">
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C42">
         <v>3839</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="0" outlineLevel="0">
-      <c r="A43" t="n">
-        <v/>
-      </c>
-      <c r="B43" t="n">
-        <v/>
-      </c>
-      <c r="C43" t="n">
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C43">
         <v>3458</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="0" outlineLevel="0">
-      <c r="A44" t="n">
-        <v/>
-      </c>
-      <c r="B44" t="n">
-        <v/>
-      </c>
-      <c r="C44" t="n">
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C44">
         <v>3931</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="0" outlineLevel="0">
-      <c r="A45" t="n">
-        <v/>
-      </c>
-      <c r="B45" t="n">
-        <v/>
-      </c>
-      <c r="C45" t="n">
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C45">
         <v>4322</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="D45" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1088,22 +1056,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
